--- a/Project_python/out/matrix_classification_all.xlsx
+++ b/Project_python/out/matrix_classification_all.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.054100244867507356]</t>
+          <t>[0.10462684874574907]</t>
         </is>
       </c>
       <c r="F2" t="b">
@@ -517,7 +517,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.06210759081459693]</t>
+          <t>[0.06439643323720853]</t>
         </is>
       </c>
       <c r="F3" t="b">
@@ -538,7 +538,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[6, 12]</t>
+          <t>[6, 5]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.03874689635289759, 0.018195121701167362]</t>
+          <t>[0.040913500853915555, 0.016917808063331118]</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -579,7 +579,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.07827779231295975]</t>
+          <t>[0.1013846848362585]</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -600,7 +600,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.032514229477123534]</t>
+          <t>[0.04689565485302567]</t>
         </is>
       </c>
       <c r="F6" t="b">
@@ -641,7 +641,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.04273480682380531]</t>
+          <t>[0.03978186256516305]</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -672,7 +672,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.08120443901466846]</t>
+          <t>[0.08295993259553089]</t>
         </is>
       </c>
       <c r="F8" t="b">
@@ -693,7 +693,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.02983918025720556]</t>
+          <t>[0.12246155503331937]</t>
         </is>
       </c>
       <c r="F9" t="b">
@@ -724,7 +724,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.01884863909340545]</t>
+          <t>[0.048122048757864036]</t>
         </is>
       </c>
       <c r="F10" t="b">
@@ -765,7 +765,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.08141113582832317]</t>
+          <t>[0.0827623626021215]</t>
         </is>
       </c>
       <c r="F11" t="b">
@@ -786,7 +786,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -796,14 +796,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.030846645636848344]</t>
+          <t>[0.02981476115346264]</t>
         </is>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -827,7 +827,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.19928237065183557]</t>
+          <t>[0.20232975901950917]</t>
         </is>
       </c>
       <c r="F13" t="b">
@@ -858,7 +858,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.0593508646607828]</t>
+          <t>[0.06547466440616186]</t>
         </is>
       </c>
       <c r="F14" t="b">
@@ -889,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0.013647533910744645, 0.012260707092635275]</t>
+          <t>[0.015624083358867861, 0.012609221338266845]</t>
         </is>
       </c>
       <c r="F15" t="b">
@@ -920,7 +920,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.09459934286155167]</t>
+          <t>[0.10202620715204078]</t>
         </is>
       </c>
       <c r="F16" t="b">
@@ -951,7 +951,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.06759818938773958]</t>
+          <t>[0.06014753511294811]</t>
         </is>
       </c>
       <c r="F17" t="b">
@@ -972,7 +972,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[7]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.05939474673872004]</t>
+          <t>[0.026832706528469783]</t>
         </is>
       </c>
       <c r="F18" t="b">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0.046003946852429714]</t>
+          <t>[0.04259633648078167]</t>
         </is>
       </c>
       <c r="F19" t="b">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[9, 17]</t>
+          <t>[17, 9]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.03289015519647495, 0.03049377628718734]</t>
+          <t>[0.060831353470153365, 0.03242226232569579]</t>
         </is>
       </c>
       <c r="F20" t="b">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.021528338060929596]</t>
+          <t>[0.025389599916970127]</t>
         </is>
       </c>
       <c r="F21" t="b">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[0.026968587622271428]</t>
+          <t>[0.026057477502336033]</t>
         </is>
       </c>
       <c r="F22" t="b">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.030681298115316377]</t>
+          <t>[0.03253432135384303]</t>
         </is>
       </c>
       <c r="F23" t="b">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[0.04652322350323352]</t>
+          <t>[0.09075209325819471]</t>
         </is>
       </c>
       <c r="F24" t="b">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[0.031076261570716784]</t>
+          <t>[0.03304063579244421]</t>
         </is>
       </c>
       <c r="F25" t="b">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[0.05838397591359071, 0.029605549442581796]</t>
+          <t>[0.06194881962186527, 0.028577423389421708]</t>
         </is>
       </c>
       <c r="F26" t="b">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[0.036943621742409206, 0.02359148862661415]</t>
+          <t>[0.03793459555224825, 0.024340394406676902]</t>
         </is>
       </c>
       <c r="F27" t="b">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[0.07382994178378029]</t>
+          <t>[0.08029789771596368]</t>
         </is>
       </c>
       <c r="F28" t="b">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[0.09584318501404876]</t>
+          <t>[0.10449668960998804]</t>
         </is>
       </c>
       <c r="F29" t="b">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[0.013493850138606673]</t>
+          <t>[0.01382921210475426]</t>
         </is>
       </c>
       <c r="F30" t="b">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[4, 12]</t>
+          <t>[4, 17]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[0.03141228999520013, 0.022156043666606843]</t>
+          <t>[0.02826521893146143, 0.023388011979325787]</t>
         </is>
       </c>
       <c r="F31" t="b">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[0.04551602616220794]</t>
+          <t>[0.04084457443409868]</t>
         </is>
       </c>
       <c r="F32" t="b">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[0.04350165936181571]</t>
+          <t>[0.0463629672845009]</t>
         </is>
       </c>
       <c r="F33" t="b">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[0.08991164515175708]</t>
+          <t>[0.09696323000878583]</t>
         </is>
       </c>
       <c r="F34" t="b">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[0.07813384403370227]</t>
+          <t>[0.0842229623402947]</t>
         </is>
       </c>
       <c r="F35" t="b">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[0.0387375599173269]</t>
+          <t>[0.04459130338507127]</t>
         </is>
       </c>
       <c r="F36" t="b">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[0.05286310913288463]</t>
+          <t>[0.05625020002521835]</t>
         </is>
       </c>
       <c r="F37" t="b">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[0.031051732763364953]</t>
+          <t>[0.03453606061197405]</t>
         </is>
       </c>
       <c r="F38" t="b">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[0.02114643726678709]</t>
+          <t>[0.034492897183063184]</t>
         </is>
       </c>
       <c r="F39" t="b">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[0.03250230894607745]</t>
+          <t>[0.029094490723335784]</t>
         </is>
       </c>
       <c r="F40" t="b">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>[3]</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>[3]</t>
-        </is>
-      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[0.03288456345626188]</t>
+          <t>[0.04265451969404255]</t>
         </is>
       </c>
       <c r="F41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[0.08503952065828775]</t>
+          <t>[0.09252307681761911]</t>
         </is>
       </c>
       <c r="F42" t="b">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[0.052273818779208545]</t>
+          <t>[0.057194112283367654]</t>
         </is>
       </c>
       <c r="F43" t="b">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[0.06755851795563211]</t>
+          <t>[0.0758628687179194]</t>
         </is>
       </c>
       <c r="F44" t="b">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[0.0338549331888651]</t>
+          <t>[0.03451908046104744]</t>
         </is>
       </c>
       <c r="F45" t="b">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[0.03213028027497715, 0.024444862453950864]</t>
+          <t>[0.03668244645765518, 0.02571618593890489]</t>
         </is>
       </c>
       <c r="F46" t="b">
@@ -1871,24 +1871,24 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>[3]</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>[3]</t>
-        </is>
-      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[0.058333435221739456]</t>
+          <t>[0.06796613571149886]</t>
         </is>
       </c>
       <c r="F47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[11, 16]</t>
+          <t>[16, 11]</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[0.021969906131743794, 0.021340395276529634]</t>
+          <t>[0.023171695448488256, 0.022845355555311503]</t>
         </is>
       </c>
       <c r="F48" t="b">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[0.029043724354149734]</t>
+          <t>[0.032219556900004956]</t>
         </is>
       </c>
       <c r="F49" t="b">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.07395791553936532]</t>
+          <t>[0.06459344575557582]</t>
         </is>
       </c>
       <c r="F50" t="b">
@@ -1995,24 +1995,24 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>[4]</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>[4]</t>
-        </is>
-      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.06808049141704821]</t>
+          <t>[0.07276844232717439]</t>
         </is>
       </c>
       <c r="F51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.13636302710677042]</t>
+          <t>[0.12104907679400446]</t>
         </is>
       </c>
       <c r="F52" t="b">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[0.0673682511222472]</t>
+          <t>[0.060210157624498564]</t>
         </is>
       </c>
       <c r="F53" t="b">
@@ -2088,24 +2088,24 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>[4]</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>[4]</t>
-        </is>
-      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[0.07540486730006213]</t>
+          <t>[0.06767744604699717]</t>
         </is>
       </c>
       <c r="F54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[0.08554693855976389]</t>
+          <t>[0.076204828684779]</t>
         </is>
       </c>
       <c r="F55" t="b">
@@ -2150,24 +2150,24 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>[4]</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>[4]</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[0.035036025685295104]</t>
+          <t>[0.03674615463962359]</t>
         </is>
       </c>
       <c r="F56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.07597522923068364]</t>
+          <t>[0.13125265032744973]</t>
         </is>
       </c>
       <c r="F57" t="b">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[0.05569975315607995]</t>
+          <t>[0.04917537564752616]</t>
         </is>
       </c>
       <c r="F58" t="b">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[0.030481629901021986]</t>
+          <t>[0.03346038293287643]</t>
         </is>
       </c>
       <c r="F59" t="b">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[0.033114285972241635]</t>
+          <t>[0.02955695669307942]</t>
         </is>
       </c>
       <c r="F60" t="b">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[0.17673364466341623]</t>
+          <t>[0.19164730133699132]</t>
         </is>
       </c>
       <c r="F61" t="b">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[0.1123871278942696]</t>
+          <t>[0.12103671439226193]</t>
         </is>
       </c>
       <c r="F62" t="b">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[0.06253511257964967]</t>
+          <t>[0.06613988763229123]</t>
         </is>
       </c>
       <c r="F63" t="b">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[0.049523729325215135]</t>
+          <t>[0.05262416474551925]</t>
         </is>
       </c>
       <c r="F64" t="b">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[0.10142199318256716]</t>
+          <t>[0.11032834835444355]</t>
         </is>
       </c>
       <c r="F65" t="b">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[0.0895938982100025]</t>
+          <t>[0.15947239964201504]</t>
         </is>
       </c>
       <c r="F66" t="b">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[0.04447642185957164]</t>
+          <t>[0.04611698609315474]</t>
         </is>
       </c>
       <c r="F67" t="b">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[0.07778008385412301]</t>
+          <t>[0.07351323123342929]</t>
         </is>
       </c>
       <c r="F68" t="b">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[0.04367034196015997]</t>
+          <t>[0.04617405678234788]</t>
         </is>
       </c>
       <c r="F69" t="b">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[0.05795405537184216]</t>
+          <t>[0.05486269916716334]</t>
         </is>
       </c>
       <c r="F70" t="b">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[0.0715994916784658]</t>
+          <t>[0.07476749464090819]</t>
         </is>
       </c>
       <c r="F71" t="b">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[0.13203736721554793]</t>
+          <t>[0.1246166929630969]</t>
         </is>
       </c>
       <c r="F72" t="b">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[15, 11]</t>
+          <t>[15, 13]</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[0.04517190335999895, 0.017124481806527227]</t>
+          <t>[0.04370233617109161, 0.030238579623894663]</t>
         </is>
       </c>
       <c r="F73" t="b">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[0.08826474015422162]</t>
+          <t>[0.0915079823558615]</t>
         </is>
       </c>
       <c r="F74" t="b">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[0.030035838687052223]</t>
+          <t>[0.05570105312265954]</t>
         </is>
       </c>
       <c r="F75" t="b">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[0.1404013885059033]</t>
+          <t>[0.05944134629568389]</t>
         </is>
       </c>
       <c r="F76" t="b">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[0.13800734395201716]</t>
+          <t>[0.10058358922027441]</t>
         </is>
       </c>
       <c r="F77" t="b">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[0.11983586290801006]</t>
+          <t>[0.0880482780610969]</t>
         </is>
       </c>
       <c r="F78" t="b">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[8, 2]</t>
+          <t>[8, 17]</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[0.08579645271179047, 0.023219457444331446]</t>
+          <t>[0.06229086526431985, 0.0278998130933538]</t>
         </is>
       </c>
       <c r="F79" t="b">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[0.05374144469942317]</t>
+          <t>[0.09771721893356046]</t>
         </is>
       </c>
       <c r="F80" t="b">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[0.17880668155903987]</t>
+          <t>[0.1252394856895276]</t>
         </is>
       </c>
       <c r="F81" t="b">
@@ -2956,21 +2956,21 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>[8, 17]</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>[8, 9]</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>[8, 9]</t>
-        </is>
-      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[0.10784691411317056, 0.028811511981894772]</t>
+          <t>[0.07945285538404637, 0.04758680764495829]</t>
         </is>
       </c>
       <c r="F82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[0.06075083819336535]</t>
+          <t>[0.12061513922397278]</t>
         </is>
       </c>
       <c r="F83" t="b">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[0.0496228414906839]</t>
+          <t>[0.03883271584120974]</t>
         </is>
       </c>
       <c r="F84" t="b">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[0.0377938335062517]</t>
+          <t>[0.03920388263427884]</t>
         </is>
       </c>
       <c r="F85" t="b">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[7]</t>
+          <t>[8]</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3090,7 +3090,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[0.07028985082163525]</t>
+          <t>[0.04258818379411093]</t>
         </is>
       </c>
       <c r="F86" t="b">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[0.09606993849860647, 0.02342744858169059]</t>
+          <t>[0.039856424071716114, 0.020650462087799547]</t>
         </is>
       </c>
       <c r="F87" t="b">
@@ -3152,7 +3152,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[0.20702453972091864, 0.04617059548638246]</t>
+          <t>[0.2142292537934633, 0.09034370229693238]</t>
         </is>
       </c>
       <c r="F88" t="b">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[0.18792261274670827, 0.08221821137846183]</t>
+          <t>[0.19503248888118535, 0.1557040993850855]</t>
         </is>
       </c>
       <c r="F89" t="b">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[0.04311869447311338, 0.041555853069541994]</t>
+          <t>[0.04617856179779693, 0.043529600785678337]</t>
         </is>
       </c>
       <c r="F90" t="b">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[0.06417697179214644]</t>
+          <t>[0.06440258646314816]</t>
         </is>
       </c>
       <c r="F91" t="b">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[0.036201524580284763]</t>
+          <t>[0.03654538614742623]</t>
         </is>
       </c>
       <c r="F92" t="b">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[0.04694342851193001]</t>
+          <t>[0.04950141519544709]</t>
         </is>
       </c>
       <c r="F93" t="b">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[0.042506283776482585]</t>
+          <t>[0.044720980243179324]</t>
         </is>
       </c>
       <c r="F94" t="b">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[0.02852495916480097]</t>
+          <t>[0.02857122815210186]</t>
         </is>
       </c>
       <c r="F95" t="b">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[0.1589406033133045]</t>
+          <t>[0.16487401753734482]</t>
         </is>
       </c>
       <c r="F96" t="b">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[0.04326155685802988]</t>
+          <t>[0.04844615259049822]</t>
         </is>
       </c>
       <c r="F97" t="b">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[0.07916770741627382]</t>
+          <t>[0.0817182870555942]</t>
         </is>
       </c>
       <c r="F98" t="b">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[0.21381226182665813]</t>
+          <t>[0.22075995727963513]</t>
         </is>
       </c>
       <c r="F99" t="b">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[0.032098030689561276]</t>
+          <t>[0.0631806228786188]</t>
         </is>
       </c>
       <c r="F100" t="b">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[0.035217606739452484]</t>
+          <t>[0.038042759417996105]</t>
         </is>
       </c>
       <c r="F101" t="b">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[0.03918803807081439]</t>
+          <t>[0.03628880884189175]</t>
         </is>
       </c>
       <c r="F102" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[0.07082086124442027]</t>
+          <t>[0.07326912178154829]</t>
         </is>
       </c>
       <c r="F103" t="b">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[0.039235653209666925]</t>
+          <t>[0.03989440078444165]</t>
         </is>
       </c>
       <c r="F104" t="b">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[0.034514519563117706]</t>
+          <t>[0.03603735148451818]</t>
         </is>
       </c>
       <c r="F105" t="b">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[0.13278190067810167]</t>
+          <t>[0.12556738179276303]</t>
         </is>
       </c>
       <c r="F106" t="b">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[0.02599288991519561]</t>
+          <t>[0.024885744722653553]</t>
         </is>
       </c>
       <c r="F107" t="b">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[0.028984397289729055]</t>
+          <t>[0.05511179077329512]</t>
         </is>
       </c>
       <c r="F108" t="b">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[0.039615930160471484]</t>
+          <t>[0.04225089356470253]</t>
         </is>
       </c>
       <c r="F109" t="b">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[0.2695893740509498]</t>
+          <t>[0.24674063314160075]</t>
         </is>
       </c>
       <c r="F110" t="b">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[0.05942999031030636]</t>
+          <t>[0.09862850216249137]</t>
         </is>
       </c>
       <c r="F111" t="b">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3896,14 +3896,14 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[0.027053555915095374]</t>
+          <t>[0.1075270084705782]</t>
         </is>
       </c>
       <c r="F112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[0.06205876635852772]</t>
+          <t>[0.06524303321697776]</t>
         </is>
       </c>
       <c r="F113" t="b">
@@ -3948,24 +3948,24 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>[14]</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>[14]</t>
-        </is>
-      </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[0.02587671995387726]</t>
+          <t>[0.027508407285448976]</t>
         </is>
       </c>
       <c r="F114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[0.04171942197972179]</t>
+          <t>[0.041092495273328436]</t>
         </is>
       </c>
       <c r="F115" t="b">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[0.14172030304861025]</t>
+          <t>[0.13726960608609945]</t>
         </is>
       </c>
       <c r="F116" t="b">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[0.1065925660114856]</t>
+          <t>[0.10367133763743533]</t>
         </is>
       </c>
       <c r="F117" t="b">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[0.10468374145368921]</t>
+          <t>[0.10050134259299037]</t>
         </is>
       </c>
       <c r="F118" t="b">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[0.11006398488847266]</t>
+          <t>[0.11417258692519627]</t>
         </is>
       </c>
       <c r="F119" t="b">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[0.044173871770722954]</t>
+          <t>[0.043437954278753674]</t>
         </is>
       </c>
       <c r="F120" t="b">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[0.08427433367705904]</t>
+          <t>[0.08103491749818235]</t>
         </is>
       </c>
       <c r="F121" t="b">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[0.12224160612521782]</t>
+          <t>[0.11538340504660309]</t>
         </is>
       </c>
       <c r="F122" t="b">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[0.10304800837953741]</t>
+          <t>[0.09773706668576691]</t>
         </is>
       </c>
       <c r="F123" t="b">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[0.07487028331055588]</t>
+          <t>[0.07229123483619854]</t>
         </is>
       </c>
       <c r="F124" t="b">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[0.07073695702764307]</t>
+          <t>[0.06712936582102834]</t>
         </is>
       </c>
       <c r="F125" t="b">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[0.05395830787804757]</t>
+          <t>[0.05185665718302561]</t>
         </is>
       </c>
       <c r="F126" t="b">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[0.0876955265139204]</t>
+          <t>[0.08495121720523229]</t>
         </is>
       </c>
       <c r="F127" t="b">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[0.13158016626165564]</t>
+          <t>[0.12383873725383622]</t>
         </is>
       </c>
       <c r="F128" t="b">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[0.19383335769716575]</t>
+          <t>[0.18277472866997485]</t>
         </is>
       </c>
       <c r="F129" t="b">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[0.07256045438584126]</t>
+          <t>[0.06823949379429653]</t>
         </is>
       </c>
       <c r="F130" t="b">
@@ -4475,24 +4475,24 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>[15]</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>[15]</t>
-        </is>
-      </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[0.04260154576322659]</t>
+          <t>[0.05740325639440668]</t>
         </is>
       </c>
       <c r="F131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[0.10228290805317494]</t>
+          <t>[0.09673227870543397]</t>
         </is>
       </c>
       <c r="F132" t="b">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[0.0757372086595805]</t>
+          <t>[0.08285141441571238]</t>
         </is>
       </c>
       <c r="F133" t="b">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[0.03863434517254597]</t>
+          <t>[0.042376515846686155]</t>
         </is>
       </c>
       <c r="F134" t="b">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[0.024579802541301935]</t>
+          <t>[0.026378095836192085]</t>
         </is>
       </c>
       <c r="F135" t="b">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[0.03085657496783926]</t>
+          <t>[0.04156805644533996]</t>
         </is>
       </c>
       <c r="F136" t="b">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[1]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[0.055435620345170175]</t>
+          <t>[0.06591503356454108]</t>
         </is>
       </c>
       <c r="F137" t="b">
@@ -4692,24 +4692,24 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>[16]</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>[16]</t>
-        </is>
-      </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[0.035430060364057575]</t>
+          <t>[0.04264468291205946]</t>
         </is>
       </c>
       <c r="F138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[0.03707469536463219]</t>
+          <t>[0.06968611077394982]</t>
         </is>
       </c>
       <c r="F139" t="b">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[0.0401920623263556]</t>
+          <t>[0.044283939947543136]</t>
         </is>
       </c>
       <c r="F140" t="b">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[17]</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4795,14 +4795,14 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[0.047405624648956514]</t>
+          <t>[0.08123493880042341]</t>
         </is>
       </c>
       <c r="F141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Project_python/out/matrix_classification_all.xlsx
+++ b/Project_python/out/matrix_classification_all.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.10462684874574907]</t>
+          <t>[0.035466258008191816]</t>
         </is>
       </c>
       <c r="F2" t="b">
@@ -517,7 +517,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.06439643323720853]</t>
+          <t>[0.06089693797836666]</t>
         </is>
       </c>
       <c r="F3" t="b">
@@ -538,7 +538,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[6, 5]</t>
+          <t>[6, 12]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.040913500853915555, 0.016917808063331118]</t>
+          <t>[0.03758710441613261, 0.017761857027835618]</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -569,7 +569,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.1013846848362585]</t>
+          <t>[0.06894730043645039]</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -600,7 +600,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,14 +610,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.04689565485302567]</t>
+          <t>[0.04376843720677381]</t>
         </is>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.03978186256516305]</t>
+          <t>[0.036804549530198724]</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -672,7 +672,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.08295993259553089]</t>
+          <t>[0.08024994287946353]</t>
         </is>
       </c>
       <c r="F8" t="b">
@@ -703,7 +703,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.12246155503331937]</t>
+          <t>[0.09955650371696904]</t>
         </is>
       </c>
       <c r="F9" t="b">
@@ -734,7 +734,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.048122048757864036]</t>
+          <t>[0.0412823391478602]</t>
         </is>
       </c>
       <c r="F10" t="b">
@@ -765,7 +765,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.0827623626021215]</t>
+          <t>[0.07146647209233416]</t>
         </is>
       </c>
       <c r="F11" t="b">
@@ -796,7 +796,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.02981476115346264]</t>
+          <t>[0.029055219127352674]</t>
         </is>
       </c>
       <c r="F12" t="b">
@@ -827,7 +827,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.20232975901950917]</t>
+          <t>[0.11871768361454835]</t>
         </is>
       </c>
       <c r="F13" t="b">
@@ -858,7 +858,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.06547466440616186]</t>
+          <t>[0.04931651769339533]</t>
         </is>
       </c>
       <c r="F14" t="b">
@@ -889,7 +889,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0.015624083358867861, 0.012609221338266845]</t>
+          <t>[0.011917449363184746, 0.011674812685238494]</t>
         </is>
       </c>
       <c r="F15" t="b">
@@ -920,7 +920,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.10202620715204078]</t>
+          <t>[0.08206267112909219]</t>
         </is>
       </c>
       <c r="F16" t="b">
@@ -951,7 +951,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.06014753511294811]</t>
+          <t>[0.06262031360599639]</t>
         </is>
       </c>
       <c r="F17" t="b">
@@ -972,7 +972,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.026832706528469783]</t>
+          <t>[0.02114130533295975]</t>
         </is>
       </c>
       <c r="F18" t="b">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0.04259633648078167]</t>
+          <t>[0.0448923906275235]</t>
         </is>
       </c>
       <c r="F19" t="b">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[17, 9]</t>
+          <t>[9, 12]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.060831353470153365, 0.03242226232569579]</t>
+          <t>[0.03760903768262144, 0.03538589369645871]</t>
         </is>
       </c>
       <c r="F20" t="b">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.025389599916970127]</t>
+          <t>[0.019336791116771026]</t>
         </is>
       </c>
       <c r="F21" t="b">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[0.026057477502336033]</t>
+          <t>[0.022380577033273612]</t>
         </is>
       </c>
       <c r="F22" t="b">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[13]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.03253432135384303]</t>
+          <t>[0.025328382466166005]</t>
         </is>
       </c>
       <c r="F23" t="b">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[0.09075209325819471]</t>
+          <t>[0.0316164250761793]</t>
         </is>
       </c>
       <c r="F24" t="b">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[0.03304063579244421]</t>
+          <t>[0.02321185175348365]</t>
         </is>
       </c>
       <c r="F25" t="b">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[0.06194881962186527, 0.028577423389421708]</t>
+          <t>[0.05987248806225379, 0.025073324881798805]</t>
         </is>
       </c>
       <c r="F26" t="b">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[12, 11]</t>
+          <t>[12, 9]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1261,14 +1261,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[0.03793459555224825, 0.024340394406676902]</t>
+          <t>[0.036731697992733285, 0.022584941865388952]</t>
         </is>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[0.08029789771596368]</t>
+          <t>[0.06257776171853134]</t>
         </is>
       </c>
       <c r="F28" t="b">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[0.10449668960998804]</t>
+          <t>[0.07541063811059871]</t>
         </is>
       </c>
       <c r="F29" t="b">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[0.01382921210475426]</t>
+          <t>[0.01429389596915169]</t>
         </is>
       </c>
       <c r="F30" t="b">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[4, 17]</t>
+          <t>[4, 12]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[0.02826521893146143, 0.023388011979325787]</t>
+          <t>[0.028529371687626214, 0.02802700535073545]</t>
         </is>
       </c>
       <c r="F31" t="b">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[0.04084457443409868]</t>
+          <t>[0.04386784671863867]</t>
         </is>
       </c>
       <c r="F32" t="b">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[0.0463629672845009]</t>
+          <t>[0.04099603000884689]</t>
         </is>
       </c>
       <c r="F33" t="b">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[0.09696323000878583]</t>
+          <t>[0.06487240527951244]</t>
         </is>
       </c>
       <c r="F34" t="b">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[0.0842229623402947]</t>
+          <t>[0.07433139627878749]</t>
         </is>
       </c>
       <c r="F35" t="b">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[0.04459130338507127]</t>
+          <t>[0.03305556209557182]</t>
         </is>
       </c>
       <c r="F36" t="b">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[0.05625020002521835]</t>
+          <t>[0.05590739040755639]</t>
         </is>
       </c>
       <c r="F37" t="b">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[0.03453606061197405]</t>
+          <t>[0.030097694121206907]</t>
         </is>
       </c>
       <c r="F38" t="b">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[0.034492897183063184]</t>
+          <t>[0.029338527925212042]</t>
         </is>
       </c>
       <c r="F39" t="b">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[0.029094490723335784]</t>
+          <t>[0.017081439147980153]</t>
         </is>
       </c>
       <c r="F40" t="b">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[0.04265451969404255]</t>
+          <t>[0.030977975931067964]</t>
         </is>
       </c>
       <c r="F41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[0.09252307681761911]</t>
+          <t>[0.08151723759060706]</t>
         </is>
       </c>
       <c r="F42" t="b">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[0.057194112283367654]</t>
+          <t>[0.05032506996122603]</t>
         </is>
       </c>
       <c r="F43" t="b">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[0.0758628687179194]</t>
+          <t>[0.04967329081435936]</t>
         </is>
       </c>
       <c r="F44" t="b">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[0.03451908046104744]</t>
+          <t>[0.029677305417671572]</t>
         </is>
       </c>
       <c r="F45" t="b">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[16, 5]</t>
+          <t>[16, 13]</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[0.03668244645765518, 0.02571618593890489]</t>
+          <t>[0.02347569362800421, 0.02272736883030757]</t>
         </is>
       </c>
       <c r="F46" t="b">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1881,14 +1881,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[0.06796613571149886]</t>
+          <t>[0.05300149407386584]</t>
         </is>
       </c>
       <c r="F47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[16, 11]</t>
+          <t>[11, 16]</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[0.023171695448488256, 0.022845355555311503]</t>
+          <t>[0.02154594855216642, 0.02036875845696325]</t>
         </is>
       </c>
       <c r="F48" t="b">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[0.032219556900004956]</t>
+          <t>[0.02071179295919651]</t>
         </is>
       </c>
       <c r="F49" t="b">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.06459344575557582]</t>
+          <t>[0.06789760046854063]</t>
         </is>
       </c>
       <c r="F50" t="b">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2005,14 +2005,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.07276844232717439]</t>
+          <t>[0.05426575980645917]</t>
         </is>
       </c>
       <c r="F51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.12104907679400446]</t>
+          <t>[0.13370496640144758]</t>
         </is>
       </c>
       <c r="F52" t="b">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[0.060210157624498564]</t>
+          <t>[0.06355688706520052]</t>
         </is>
       </c>
       <c r="F53" t="b">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2098,14 +2098,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[0.06767744604699717]</t>
+          <t>[0.07392815894114058]</t>
         </is>
       </c>
       <c r="F54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[0.076204828684779]</t>
+          <t>[0.0817575875957189]</t>
         </is>
       </c>
       <c r="F55" t="b">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2160,14 +2160,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[0.03674615463962359]</t>
+          <t>[0.03607563652958379]</t>
         </is>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2191,14 +2191,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.13125265032744973]</t>
+          <t>[0.04880330020599433]</t>
         </is>
       </c>
       <c r="F57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[0.04917537564752616]</t>
+          <t>[0.05421911066031897]</t>
         </is>
       </c>
       <c r="F58" t="b">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[0.03346038293287643]</t>
+          <t>[0.024753838414933726]</t>
         </is>
       </c>
       <c r="F59" t="b">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[0.02955695669307942]</t>
+          <t>[0.030986117167609257]</t>
         </is>
       </c>
       <c r="F60" t="b">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[0.19164730133699132]</t>
+          <t>[0.14023365965762682]</t>
         </is>
       </c>
       <c r="F61" t="b">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[0.12103671439226193]</t>
+          <t>[0.0939923883428204]</t>
         </is>
       </c>
       <c r="F62" t="b">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[0.06613988763229123]</t>
+          <t>[0.045626203144293824]</t>
         </is>
       </c>
       <c r="F63" t="b">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[0.05262416474551925]</t>
+          <t>[0.04473794289289496]</t>
         </is>
       </c>
       <c r="F64" t="b">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[0.11032834835444355]</t>
+          <t>[0.08684598458890366]</t>
         </is>
       </c>
       <c r="F65" t="b">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[0.15947239964201504]</t>
+          <t>[0.06383343837493055]</t>
         </is>
       </c>
       <c r="F66" t="b">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[0.04611698609315474]</t>
+          <t>[0.04146604837299899]</t>
         </is>
       </c>
       <c r="F67" t="b">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[0.07351323123342929]</t>
+          <t>[0.07392861250552937]</t>
         </is>
       </c>
       <c r="F68" t="b">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[0.04617405678234788]</t>
+          <t>[0.04075010178532525]</t>
         </is>
       </c>
       <c r="F69" t="b">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[0.05486269916716334]</t>
+          <t>[0.05376893201158698]</t>
         </is>
       </c>
       <c r="F70" t="b">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[0.07476749464090819]</t>
+          <t>[0.06649159614564351]</t>
         </is>
       </c>
       <c r="F71" t="b">
@@ -2656,7 +2656,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[0.1246166929630969]</t>
+          <t>[0.1250823448612671]</t>
         </is>
       </c>
       <c r="F72" t="b">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[0.04370233617109161, 0.030238579623894663]</t>
+          <t>[0.04099687725160698, 0.028508512343912364]</t>
         </is>
       </c>
       <c r="F73" t="b">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[0.0915079823558615]</t>
+          <t>[0.08350046612299991]</t>
         </is>
       </c>
       <c r="F74" t="b">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[0.05570105312265954]</t>
+          <t>[0.026267617663848337]</t>
         </is>
       </c>
       <c r="F75" t="b">
@@ -2770,24 +2770,24 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>[12]</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>[7]</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>[7]</t>
-        </is>
-      </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[0.05944134629568389]</t>
+          <t>[0.04794282474611173]</t>
         </is>
       </c>
       <c r="F76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[0.10058358922027441]</t>
+          <t>[0.06091480202849399]</t>
         </is>
       </c>
       <c r="F77" t="b">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[0.0880482780610969]</t>
+          <t>[0.05052471767604359]</t>
         </is>
       </c>
       <c r="F78" t="b">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[8, 17]</t>
+          <t>[8, 2]</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[0.06229086526431985, 0.0278998130933538]</t>
+          <t>[0.03866792715108789, 0.023285385195912337]</t>
         </is>
       </c>
       <c r="F79" t="b">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[0.09771721893356046]</t>
+          <t>[0.040312411114798906]</t>
         </is>
       </c>
       <c r="F80" t="b">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[0.1252394856895276]</t>
+          <t>[0.07718240269916005]</t>
         </is>
       </c>
       <c r="F81" t="b">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[8, 17]</t>
+          <t>[8, 9]</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2966,11 +2966,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[0.07945285538404637, 0.04758680764495829]</t>
+          <t>[0.0461483440488905, 0.029964199318320374]</t>
         </is>
       </c>
       <c r="F82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
@@ -2987,7 +2987,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[0.12061513922397278]</t>
+          <t>[0.07357428715159886]</t>
         </is>
       </c>
       <c r="F83" t="b">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[0.03883271584120974]</t>
+          <t>[0.021358440109739522]</t>
         </is>
       </c>
       <c r="F84" t="b">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[0.03920388263427884]</t>
+          <t>[0.03561324842136702]</t>
         </is>
       </c>
       <c r="F85" t="b">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3090,14 +3090,14 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[0.04258818379411093]</t>
+          <t>[0.044563608008526205]</t>
         </is>
       </c>
       <c r="F86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[7, 9]</t>
+          <t>[7, 12]</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3121,14 +3121,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[0.039856424071716114, 0.020650462087799547]</t>
+          <t>[0.028896580662196924, 0.023920002082889212]</t>
         </is>
       </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[11, 17]</t>
+          <t>[11, 9]</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3152,11 +3152,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[0.2142292537934633, 0.09034370229693238]</t>
+          <t>[0.17716166064419608, 0.043730675695712054]</t>
         </is>
       </c>
       <c r="F88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[6, 17]</t>
+          <t>[6, 12]</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[0.19503248888118535, 0.1557040993850855]</t>
+          <t>[0.1751701047227347, 0.06539700184660185]</t>
         </is>
       </c>
       <c r="F89" t="b">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[0.04617856179779693, 0.043529600785678337]</t>
+          <t>[0.044159856466523206, 0.03901013449817609]</t>
         </is>
       </c>
       <c r="F90" t="b">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[0.06440258646314816]</t>
+          <t>[0.035446916398140745]</t>
         </is>
       </c>
       <c r="F91" t="b">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[0.03654538614742623]</t>
+          <t>[0.04031519494314208]</t>
         </is>
       </c>
       <c r="F92" t="b">
@@ -3307,7 +3307,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[0.04950141519544709]</t>
+          <t>[0.03833593328980242]</t>
         </is>
       </c>
       <c r="F93" t="b">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[0.044720980243179324]</t>
+          <t>[0.0373594185605455]</t>
         </is>
       </c>
       <c r="F94" t="b">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[0.02857122815210186]</t>
+          <t>[0.026617656148442283]</t>
         </is>
       </c>
       <c r="F95" t="b">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[0.16487401753734482]</t>
+          <t>[0.14956953730286204]</t>
         </is>
       </c>
       <c r="F96" t="b">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[0.04844615259049822]</t>
+          <t>[0.03891903284414059]</t>
         </is>
       </c>
       <c r="F97" t="b">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[0.0817182870555942]</t>
+          <t>[0.07505736828468332]</t>
         </is>
       </c>
       <c r="F98" t="b">
@@ -3493,7 +3493,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[0.22075995727963513]</t>
+          <t>[0.18942482169040123]</t>
         </is>
       </c>
       <c r="F99" t="b">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[0.0631806228786188]</t>
+          <t>[0.02578840364173072]</t>
         </is>
       </c>
       <c r="F100" t="b">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[0.038042759417996105]</t>
+          <t>[0.03305412418815392]</t>
         </is>
       </c>
       <c r="F101" t="b">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[0.03628880884189175]</t>
+          <t>[0.0317792484970579]</t>
         </is>
       </c>
       <c r="F102" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[0.07326912178154829]</t>
+          <t>[0.06324871793254704]</t>
         </is>
       </c>
       <c r="F103" t="b">
@@ -3638,24 +3638,24 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>[9]</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>[11]</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>[11]</t>
-        </is>
-      </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[0.03989440078444165]</t>
+          <t>[0.02459544886318947]</t>
         </is>
       </c>
       <c r="F104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[0.03603735148451818]</t>
+          <t>[0.03159497707468232]</t>
         </is>
       </c>
       <c r="F105" t="b">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[0.12556738179276303]</t>
+          <t>[0.12087403957999945]</t>
         </is>
       </c>
       <c r="F106" t="b">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[0.024885744722653553]</t>
+          <t>[0.025930171473689503]</t>
         </is>
       </c>
       <c r="F107" t="b">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[0.05511179077329512]</t>
+          <t>[0.023689683480433054]</t>
         </is>
       </c>
       <c r="F108" t="b">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[0.04225089356470253]</t>
+          <t>[0.03955821610534852]</t>
         </is>
       </c>
       <c r="F109" t="b">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[0.24674063314160075]</t>
+          <t>[0.27173870659581717]</t>
         </is>
       </c>
       <c r="F110" t="b">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[0.09862850216249137]</t>
+          <t>[0.04463044627100755]</t>
         </is>
       </c>
       <c r="F111" t="b">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[0.1075270084705782]</t>
+          <t>[0.08627359019179143]</t>
         </is>
       </c>
       <c r="F112" t="b">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[0.06524303321697776]</t>
+          <t>[0.06138741294186465]</t>
         </is>
       </c>
       <c r="F113" t="b">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3958,14 +3958,14 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[0.027508407285448976]</t>
+          <t>[0.02758154918449334]</t>
         </is>
       </c>
       <c r="F114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[0.041092495273328436]</t>
+          <t>[0.04365776522430903]</t>
         </is>
       </c>
       <c r="F115" t="b">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[0.13726960608609945]</t>
+          <t>[0.14917223806961288]</t>
         </is>
       </c>
       <c r="F116" t="b">
@@ -4051,7 +4051,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[0.10367133763743533]</t>
+          <t>[0.11161160632200133]</t>
         </is>
       </c>
       <c r="F117" t="b">
@@ -4082,7 +4082,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[0.10050134259299037]</t>
+          <t>[0.10025188105995723]</t>
         </is>
       </c>
       <c r="F118" t="b">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[0.11417258692519627]</t>
+          <t>[0.10239651435419211]</t>
         </is>
       </c>
       <c r="F119" t="b">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[0.043437954278753674]</t>
+          <t>[0.045893865770374305]</t>
         </is>
       </c>
       <c r="F120" t="b">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[0.08103491749818235]</t>
+          <t>[0.08479760010644108]</t>
         </is>
       </c>
       <c r="F121" t="b">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[0.11538340504660309]</t>
+          <t>[0.12270317605994975]</t>
         </is>
       </c>
       <c r="F122" t="b">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[0.09773706668576691]</t>
+          <t>[0.10705690686883348]</t>
         </is>
       </c>
       <c r="F123" t="b">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[0.07229123483619854]</t>
+          <t>[0.06476315291917385]</t>
         </is>
       </c>
       <c r="F124" t="b">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[0.06712936582102834]</t>
+          <t>[0.0695087889719931]</t>
         </is>
       </c>
       <c r="F125" t="b">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[0.05185665718302561]</t>
+          <t>[0.04760349344773735]</t>
         </is>
       </c>
       <c r="F126" t="b">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[0.08495121720523229]</t>
+          <t>[0.07909096678886626]</t>
         </is>
       </c>
       <c r="F127" t="b">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[0.12383873725383622]</t>
+          <t>[0.13241586273784342]</t>
         </is>
       </c>
       <c r="F128" t="b">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[0.18277472866997485]</t>
+          <t>[0.18191697845766894]</t>
         </is>
       </c>
       <c r="F129" t="b">
@@ -4454,7 +4454,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[0.06823949379429653]</t>
+          <t>[0.06555146601033379]</t>
         </is>
       </c>
       <c r="F130" t="b">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4485,14 +4485,14 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[0.05740325639440668]</t>
+          <t>[0.04031291221202831]</t>
         </is>
       </c>
       <c r="F131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[0.09673227870543397]</t>
+          <t>[0.08793151661554247]</t>
         </is>
       </c>
       <c r="F132" t="b">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[0.08285141441571238]</t>
+          <t>[0.07752794587399682]</t>
         </is>
       </c>
       <c r="F133" t="b">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[0.042376515846686155]</t>
+          <t>[0.03483313748603234]</t>
         </is>
       </c>
       <c r="F134" t="b">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[0.026378095836192085]</t>
+          <t>[0.022376656580335687]</t>
         </is>
       </c>
       <c r="F135" t="b">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[0.04156805644533996]</t>
+          <t>[0.03042703837460195]</t>
         </is>
       </c>
       <c r="F136" t="b">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[0.06591503356454108]</t>
+          <t>[0.05235429670803349]</t>
         </is>
       </c>
       <c r="F137" t="b">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[0.04264468291205946]</t>
+          <t>[0.02674225865574708]</t>
         </is>
       </c>
       <c r="F138" t="b">
@@ -4723,7 +4723,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>[17]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[0.06968611077394982]</t>
+          <t>[0.022998340393157488]</t>
         </is>
       </c>
       <c r="F139" t="b">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[0.044283939947543136]</t>
+          <t>[0.037267519060024144]</t>
         </is>
       </c>
       <c r="F140" t="b">
@@ -4785,24 +4785,24 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>[17]</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>[17]</t>
-        </is>
-      </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[0.08123493880042341]</t>
+          <t>[0.05315687469358349]</t>
         </is>
       </c>
       <c r="F141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
